--- a/Java code references - 21'04.xlsx
+++ b/Java code references - 21'04.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git-hub.com Clone\Springboot-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A87AAB-3CF4-4FA8-871D-C6C5902AC053}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C57D3AF-C137-4C5B-AB40-79EAAB4F53DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2316" yWindow="1044" windowWidth="20760" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="132" yWindow="144" windowWidth="22488" windowHeight="11808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref. Site" sheetId="2" r:id="rId1"/>
     <sheet name="By Subject" sheetId="1" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,235 +27,2528 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Topic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ref. URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>File</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://howtodoinjava.com/java8/read-file-line-by-line/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Java 8 – Read file line by line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HowToDoInJava - Java 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Site</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://howtodoinjava.com/java8/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://technicalsand.com/streaming-data-spring-boot-restful-web-service/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Streaming Data with Spring Boot RESTful Web Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Stream Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://examples.javacodegeeks.com/java-read-file-line-by-line-example/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Java Read File Line by Line Example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://technicalsand.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TechnicalSand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Spring task scheduler examples</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://technicalsand.com/spring-task-scheduler-examples/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Spring Scheduler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://www.baeldung.com/spring-scheduled-tasks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>The @Scheduled Annotation in Spring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>@Configuration
 @EnableScheduling
 'public class SpringConfig {...}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://www.baeldung.com/reading-file-in-java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>How to Read a File in Java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://www.baeldung.com/spring-classpath-file-access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Access a File from the Classpath in a Spring Application</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://zetcode.com/springboot/json/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Spring Boot JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://iter01.com/517867.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Java NIO的理解和應用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IT 人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://iter01.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Spring Boot - Scheduling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://www.tutorialspoint.com/spring_boot/spring_boot_scheduling.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://www.tutorialspoint.com/spring_boot/index.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Springboot Tutorials</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://www.javatpoint.com/spring-boot-devtools</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Spring Boot DevTools</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://www.javatpoint.com/spring-boot-tutorial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Java T Point - Springboot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Apache Commons IO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://www.baeldung.com/apache-commons-io</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Spring Boot 讀取resources目錄的檔案 read file in resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://matthung0807.blogspot.com/2020/01/spring-boot-read-file-in-resources.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://www.baeldung.com/java-soap-web-service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Invoking a SOAP Web Service in Java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SOAP Web Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- https://www.youtube.com/watch?v=9SGDpanrc8U&amp;t=2175s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Spring Boot Tutorial | Full Course [2021] [NEW]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Tutorial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. https://hackmd.io/@MonsterLee/HJyAdgRBB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. https://www.zhihu.com/question/19773379
+https://zhuanlan.zhihu.com/p/35762537
+https://blog.csdn.net/chenchunlin526/article/details/69939337</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. PO(persistant object) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>持久物件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PO(persistant object) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>持久物件
+在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> o/r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>對映的時候出現的概念，如果沒有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> o/r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>對映，沒有這個概念存在了。通常對應資料模型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>資料庫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>本身還有部分業務邏輯的處理。可以看成是與資料庫中的表相對映的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>物件。最簡單的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>就是對應資料庫中某個表中的一條記錄，多個記錄可以用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>的集合。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>中應該不包含任何對資料庫的操作。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PO(Persistant Object)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>即資料庫裡的一筆記錄。
+好處是可以把一筆記錄當作一個物件處理，可以方便的轉換成其他物件。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2. DO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Domain Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>）領域物件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Domain Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>）領域物件
+就是從現實世界中抽象出來的有形或無形的業務實體。一般和資料中的表結構對應。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. TO(Transfer Object) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>，資料傳輸物件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TO(Transfer Object) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>，資料傳輸物件
+在應用程式不同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tie( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>關係</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>之間傳輸的物件</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4. DTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data Transfer Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>）資料傳輸物件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data Transfer Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>）資料傳輸物件
+這個概念來源於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>J2EE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>的設計模式，原來的目的是為了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>EJB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>的分散式應用提供粗粒度的資料實體，以減少分散式呼叫的次數，從而提高分散式呼叫的效能和降低網路負載，但在這裡，我泛指用於展示層與服務層之間的資料傳輸物件。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. VO(view object) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>值物件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VO(view object) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>值物件
+檢視物件，用於展示層，它的作用是把某個指定頁面（或元件）的所有資料封裝起來。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VO(Value Object)
+ViewObject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>表現層物件
+主要對應介面顯示的資料物件。對於一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>WEB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>頁面，或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SWT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SWING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>的一個介面，用一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>VO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>物件對應整個介面的值。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. BO(business object) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>業務物件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BO(business object) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>業務物件
+從業務模型的角度看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>見</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UML </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>元件領域模型中的領域物件。封裝業務邏輯的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>物件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>通過呼叫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> DAO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>結合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PO,VO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>進行業務操作。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> business object: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>業務物件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>主要作用是把業務邏輯封裝為一個物件。這個物件可以包括一個或多個其它的物件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>比如一個簡歷，有教育經歷、工作經歷、社會關係等等。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>我們可以把教育經歷對應一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>，工作經歷對應一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>，社會關係對應一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>建立一個對應簡歷的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>物件處理簡歷，每個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>包含這些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>這樣處理業務邏輯時，我們就可以針對</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>去處理。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BO(Business Object)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>主要作用是把業務邏輯封裝為一個物件。這個物件可以包括一個或多個其他的物件。
+比如一個簡歷，有教育經歷、工作經歷等等
+我們可以把教育經歷對應一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>，工作經歷對應一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>。
+建立一個對應簡歷的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>物件處理簡歷，每個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>包含這些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>。
+這樣處理業務邏輯時，我們就可以針對</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>去處理。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. POJO(plain ordinary java object) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>簡單無規則</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>物件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POJO(plain ordinary java object) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>簡單無規則</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>物件
+純的傳統意義的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>物件。就是說在一些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Object/Relation Mapping </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>工具中，能夠做到維護資料庫表記錄的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> persisent object </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>完全是一個符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Java Bean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>規範的純</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>物件，沒有增加別的屬性和方法。我的理解就是最基本的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Java Bean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>，只有屬性欄位及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> setter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> getter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>方法！。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. DAO(data access object) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>資料訪問物件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DAO(data access object) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>資料訪問物件
+是一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sun </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>的一個標準</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> j2ee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>設計模式，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>這個模式中有個介面就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> DAO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>，它負持久層的操作。為業務層提供介面。此物件用於訪問資料庫。通常和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>結合使用，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> DAO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>中包含了各種資料庫的操作方法。通過它的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>結合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>對資料庫進行相關的操作。夾在業務邏輯與資料庫資源中間。配合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> VO, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>提供資料庫的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CRUD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">持久物件，資料；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>業務物件，封裝物件、複雜物件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，裡面可能包含多個類；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>傳輸物件，前端呼叫時傳輸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">VO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>表現物件，前端介面展示。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> VO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Entity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>帶有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Identity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">VO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>沒有帶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Identity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，也就是說</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Entity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>只有異動了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Identity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>才算是不同物件，但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> VO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>只要有屬性被變更了，就視為是不同物件</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DTO(Data Transfer Object)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主要用於遠端調用等需要大量傳輸物件的地方。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>比如我們一張表有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個欄位，那麼對應的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>就有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個屬性。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>但是我們介面上只要顯示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個欄位，用戶端用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>WEB service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>來獲取資料，不需要將整個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>物件傳遞到用戶端，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>此時即可以用只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個屬性的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>DTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>來傳遞結果到用戶端，如此亦不會暴露服務端表結構。到達用戶端以後，如果用這個物件來對應介面顯示，那此時它的身份就轉為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">VO
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DAO(Data Access Object)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主要用來封裝對資料庫的訪問。通過它可以把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>POJO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>持久化為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>組裝出來</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>VO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>DTO</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POJO(Plain Old Java Object or Plain Ordinary Java Object)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>只有屬性及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>getter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">setter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Java Object
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>POJO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>持久化以後就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>直接用它傳遞、傳遞過程中就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DTO
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>直接用來對應表示層就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">VO
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- https://www.javatpoint.com/convert-java-object-to-json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert Java object to JSON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,11 +2557,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -296,7 +2609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -315,6 +2628,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -330,6 +2653,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>62434</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>162005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>159699</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>545503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE85B66F-4DB4-4B40-BDAD-3EE06B78F189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14867005" y="1305005"/>
+          <a:ext cx="2818694" cy="3605669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812971</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>197352</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>143308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53729D55-9E45-4E80-BEB0-F959D5D89142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10969342" y="7342670"/>
+          <a:ext cx="8931153" cy="6723466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,17 +3119,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:F19"/>
+  <dimension ref="A4:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -932,8 +3382,202 @@
         <v>52</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE04744-84C3-462F-9003-D4F28611CD47}">
+  <dimension ref="B2:E29"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="58.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="8"/>
+    <col min="4" max="4" width="90.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="67.375" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="75" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="134.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="59.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="105" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="89.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="75" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="D11" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Java code references - 21'04.xlsx
+++ b/Java code references - 21'04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git-hub.com Clone\Springboot-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C57D3AF-C137-4C5B-AB40-79EAAB4F53DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37FDDCF-0F34-4B0F-A0BC-6B1A8B1F44B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="144" windowWidth="22488" windowHeight="11808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22488" windowHeight="11808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref. Site" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
   <si>
     <t>Type</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2541,6 +2541,63 @@
   </si>
   <si>
     <t>Convert Java object to JSON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is a serialVersionUID and why should I use it?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- https://stackoverflow.com/questions/285793/what-is-a-serialversionuid-and-why-should-i-use-it</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SerialVersion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring JDBC
+Last modified: February 20, 2021
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- https://www.baeldung.com/spring-jdbc-jdbctemplate
+- 6.1. Basic Batch Operations Using JdbcTemplate
+Using JdbcTemplate, Batch Operations can be run via the batchUpdate() API.
+- 6.2. Batch Operations Using NamedParameterJdbcTemplate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> NamedParameterJdbcTemplate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using a List of Values in a JdbcTemplate IN Clause</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- https://www.baeldung.com/spring-jdbctemplate-in-list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 2.2. With NamedParameterJdbcTemplate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>How to Specify Named Parameters Using the NamedParameterJdbcTemplate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- https://dzone.com/articles/how-to-specify-named-parameters-using-the-namedpar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- https://www.baeldung.com/jackson-object-mapper-tutorial</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2609,7 +2666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2638,6 +2695,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3126,20 +3186,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:F20"/>
+  <dimension ref="A4:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="8.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="68.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="57.375" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -3334,7 +3394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -3351,7 +3411,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>44291</v>
       </c>
@@ -3365,7 +3425,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
@@ -3382,7 +3442,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3391,11 +3451,79 @@
       </c>
       <c r="E20" s="5" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>44297</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44297</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44297</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Java code references - 21'04.xlsx
+++ b/Java code references - 21'04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git-hub.com Clone\Springboot-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37FDDCF-0F34-4B0F-A0BC-6B1A8B1F44B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EADE7BC-D2F4-4729-AE6D-CD0AABC3A88E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="22488" windowHeight="11808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>Type</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2598,6 +2598,29 @@
   </si>
   <si>
     <t>- https://www.baeldung.com/jackson-object-mapper-tutorial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intro to the Jackson ObjectMapper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+    &lt;groupId&gt;com.fasterxml.jackson.core&lt;/groupId&gt;
+    &lt;artifactId&gt;jackson-databind&lt;/artifactId&gt;
+    &lt;version&gt;2.11.1&lt;/version&gt;
+&lt;/dependency&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- https://www.baeldung.com/jackson-object-mapper-tutorial
+- ObjectMapper objectMapper = new ObjectMapper();
+Car car = new Car("yellow", "renault");
+objectMapper.writeValue(new File("target/car.json"), car);
+- String carAsString = objectMapper.writeValueAsString(car);
+- Car car = objectMapper.readValue(json, Car.class);
+- File: Car car = objectMapper.readValue(new File("src/test/resources/json_car.json"), Car.class);
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3186,10 +3209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:F25"/>
+  <dimension ref="A4:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3197,8 +3220,8 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="9.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="73.625" style="4" customWidth="1"/>
     <col min="6" max="6" width="57.375" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
@@ -3443,6 +3466,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>44298</v>
+      </c>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3453,42 +3479,42 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="135" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B21" s="3">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>44297</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="3">
@@ -3497,26 +3523,46 @@
       <c r="C23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44297</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D24" s="4" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E25" s="5" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="5" t="s">
         <v>96</v>
       </c>
     </row>
